--- a/STGGame/Assets/MainEditor/编号说明.xlsx
+++ b/STGGame/Assets/MainEditor/编号说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="13020" windowWidth="34000" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="5300" yWindow="3600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>系统类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,8 +284,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,11 +314,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,7 +657,7 @@
   <dimension ref="D1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,10 +734,12 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="4:18">
@@ -850,15 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N3:Q3"/>
+  <mergeCells count="22">
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L8:Q8"/>
@@ -872,6 +878,15 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/STGGame/Assets/MainEditor/编号说明.xlsx
+++ b/STGGame/Assets/MainEditor/编号说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="3600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-1680" yWindow="10240" windowWidth="39300" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>系统类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>大类(01:普通特效,02:技能特效,03:模型特效,04:UI特效,05:场景特效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(01:自色,02:僚机,03:Boss,04:Mob,05:Bullet,08.Prop)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +661,7 @@
   <dimension ref="D1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Q6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -741,6 +745,9 @@
         <v>12</v>
       </c>
       <c r="Q3" s="10"/>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
@@ -865,19 +872,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="H8:I8"/>
@@ -887,6 +887,13 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/STGGame/Assets/MainEditor/编号说明.xlsx
+++ b/STGGame/Assets/MainEditor/编号说明.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="10240" windowWidth="39300" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-1680" yWindow="10245" windowWidth="29040" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="编号说明" sheetId="1" r:id="rId1"/>
+    <sheet name="实体说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>系统类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,14 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,91 +82,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个(01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十(02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百(03)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千(04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万(05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万(06)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万(07)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万(08)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿(09)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亿(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百亿(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿(12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(01:自机,02:僚机,03:Boss,04:Mob,05:Bullet,08.Prop)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>种类(05)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>种类(06)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用int型,最大9位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(01:普通特效,02:技能特效,03:模型特效,04:UI特效,05:场景特效,06:精灵特效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100以内属于玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细看说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>大类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个(01)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十(02)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百(03)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千(04)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万(05)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万(06)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万(07)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万(08)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿(09)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十亿(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百亿(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千亿(12)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类(06)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(01:普通特效,02:技能特效,03:模型特效,04:UI特效,05:场景特效)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(01:自色,02:僚机,03:Boss,04:Mob,05:Bullet,08.Prop)</t>
+    <t>精灵,模型特效使用同序号(除流水序号其余5位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同实体大类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +282,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,6 +346,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -301,35 +369,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -657,243 +752,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="5" width="11" style="1"/>
-    <col min="18" max="18" width="13.1640625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18">
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="4:18">
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="2:27">
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="2:27">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="4:18">
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="4:18">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+    </row>
+    <row r="4" spans="2:27">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="4:18">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:27">
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="4:18">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+    </row>
+    <row r="6" spans="2:27">
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="4:18">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="2:27">
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="4:18">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="2:27">
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
+  <mergeCells count="27">
+    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="R5:AA5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -904,4 +1082,601 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:AB48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="9" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:28">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="3:28">
+      <c r="C2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28">
+      <c r="C3"/>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" spans="3:28">
+      <c r="C4"/>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="3:28">
+      <c r="C5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="3:28">
+      <c r="C6"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="3:28">
+      <c r="C7"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="3:28">
+      <c r="C8"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="3:28">
+      <c r="C9"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="3:28">
+      <c r="C10"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="3:28">
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="3:28">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="3:28">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="3:28">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="3:28">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="3:28">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/STGGame/Assets/MainEditor/编号说明.xlsx
+++ b/STGGame/Assets/MainEditor/编号说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="10245" windowWidth="29040" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="8980" yWindow="2960" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="编号说明" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -377,7 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,12 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +391,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,22 +411,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -752,39 +751,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="11" style="1"/>
-    <col min="18" max="18" width="13.125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="2:27">
       <c r="D2" s="2" t="s">
@@ -840,25 +839,25 @@
       <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="18"/>
@@ -878,26 +877,26 @@
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="2:27">
       <c r="D5" s="1" t="s">
@@ -906,38 +905,38 @@
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17" t="s">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="2:27">
       <c r="D6" s="1" t="s">
@@ -946,38 +945,38 @@
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17" t="s">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="2:27">
       <c r="D7" s="1" t="s">
@@ -986,24 +985,24 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="15" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:27">
       <c r="D8" s="1" t="s">
@@ -1012,25 +1011,25 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="S8" s="18"/>
@@ -1045,17 +1044,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="R5:AA5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="D1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="M3:Q3"/>
@@ -1072,6 +1060,17 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="R5:AA5"/>
+    <mergeCell ref="M7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1085,16 +1084,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AB48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="9" width="9" style="6"/>
+    <col min="3" max="9" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:28">
@@ -1173,16 +1172,16 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="3:28">
       <c r="C4"/>
@@ -1192,82 +1191,82 @@
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="15" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="3:28">
       <c r="C5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="15" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="3:28">
       <c r="C6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="15" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="3:28">
       <c r="C7"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="3:28">
@@ -1278,48 +1277,48 @@
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="15" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="3:28">
       <c r="C9"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="3:28">
       <c r="C10"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="3:28">
@@ -1677,6 +1676,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>